--- a/data/metadata/Informe-05-050301-TP.xlsx
+++ b/data/metadata/Informe-05-050301-TP.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
   <si>
     <t>mes-y-ano</t>
   </si>
@@ -43,7 +43,7 @@
     <t>sdmx-dimension:refArea</t>
   </si>
   <si>
-    <t>iaest-dimension:sexo</t>
+    <t>iaest-measure:sexo</t>
   </si>
   <si>
     <t>medida</t>
@@ -56,12 +56,6 @@
   </si>
   <si>
     <t>URI-Provincia</t>
-  </si>
-  <si>
-    <t>skos:Concept</t>
-  </si>
-  <si>
-    <t>mapping-sexo.xlsx</t>
   </si>
 </sst>
 </file>
@@ -175,7 +169,7 @@
         <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>8</v>
@@ -195,15 +189,10 @@
         <v>14</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="E5" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/data/metadata/Informe-05-050301-TP.xlsx
+++ b/data/metadata/Informe-05-050301-TP.xlsx
@@ -11,41 +11,41 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
-  <si>
-    <t>mes-y-ano</t>
-  </si>
-  <si>
-    <t>numero-de-contratos</t>
-  </si>
-  <si>
-    <t>mes-codigo</t>
-  </si>
-  <si>
-    <t>provincia-nombre</t>
-  </si>
-  <si>
-    <t>sexo</t>
-  </si>
-  <si>
-    <t>provincia-codigo</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+  <si>
+    <t>Mes (código)</t>
+  </si>
+  <si>
+    <t>Número de contratos</t>
+  </si>
+  <si>
+    <t>Provincia código</t>
+  </si>
+  <si>
+    <t>Provincia nombre</t>
+  </si>
+  <si>
+    <t>Sexo</t>
+  </si>
+  <si>
+    <t>Mes y año</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>iaest-measure:numero-de-contratos</t>
+  </si>
+  <si>
+    <t>sdmx-dimension:refArea</t>
+  </si>
+  <si>
+    <t>iaest-measure:sexo</t>
   </si>
   <si>
     <t>iaest-measure:mes-y-ano</t>
   </si>
   <si>
-    <t>iaest-measure:numero-de-contratos</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>sdmx-dimension:refArea</t>
-  </si>
-  <si>
-    <t>iaest-measure:sexo</t>
-  </si>
-  <si>
     <t>medida</t>
   </si>
   <si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>URI-Provincia</t>
+  </si>
+  <si>
+    <t>xsd:string</t>
   </si>
 </sst>
 </file>
@@ -143,27 +146,27 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>12</v>
@@ -172,27 +175,27 @@
         <v>11</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/data/metadata/Informe-05-050301-TP.xlsx
+++ b/data/metadata/Informe-05-050301-TP.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>Mes (código)</t>
   </si>
@@ -29,6 +29,24 @@
   </si>
   <si>
     <t>Mes y año</t>
+  </si>
+  <si>
+    <t>mes-codigo</t>
+  </si>
+  <si>
+    <t>numero-de-contratos</t>
+  </si>
+  <si>
+    <t>provincia-codigo</t>
+  </si>
+  <si>
+    <t>provincia-nombre</t>
+  </si>
+  <si>
+    <t>sexo</t>
+  </si>
+  <si>
+    <t>mes-y-ano</t>
   </si>
   <si>
     <t>null</t>
@@ -146,56 +164,76 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
